--- a/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09381833075655244</v>
+        <v>0.09294208291254007</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1648406966593292</v>
+        <v>0.1688432632116196</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1749171615031533</v>
+        <v>0.1699381536327325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1576405008252734</v>
+        <v>0.1566285500016615</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1281490666394678</v>
+        <v>0.1310928282395378</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1858186738804083</v>
+        <v>0.1827359212365648</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1667326561630432</v>
+        <v>0.1635798347618728</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1726697877649893</v>
+        <v>0.1748310372305781</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1164881945404043</v>
+        <v>0.1173419296797148</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1845564063852053</v>
+        <v>0.1836439158350195</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.177357958969122</v>
+        <v>0.1789495225719531</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1727484769073878</v>
+        <v>0.1743354369633002</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1441371053197021</v>
+        <v>0.1439890629934504</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2257402219623854</v>
+        <v>0.2290925275145012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.235864328915962</v>
+        <v>0.2366331043232407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.21510636418426</v>
+        <v>0.2147275592801225</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1811526906147716</v>
+        <v>0.1825400922860927</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2514293130504423</v>
+        <v>0.2514733110793599</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2343556133913938</v>
+        <v>0.2289745093181621</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2217138715165777</v>
+        <v>0.2221783082458275</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1536720128601878</v>
+        <v>0.1542626406627813</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2281041397790167</v>
+        <v>0.2291166218117051</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.223032218923523</v>
+        <v>0.2262843579549263</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.210730484974073</v>
+        <v>0.2129610183110024</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1250085171847132</v>
+        <v>0.1261901244029706</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1497277205609478</v>
+        <v>0.1501734097390273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.156387077717025</v>
+        <v>0.1569909103361371</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.136357766723451</v>
+        <v>0.1358319075695785</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1276764362344222</v>
+        <v>0.1285041273167596</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2020556808197727</v>
+        <v>0.2003837968763232</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1780076210229324</v>
+        <v>0.1754442718955427</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1334618098385589</v>
+        <v>0.1322354257774955</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1329377913397394</v>
+        <v>0.1317103036260389</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1830658767834314</v>
+        <v>0.1847263164529141</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1734384595404533</v>
+        <v>0.1725784524029419</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1390706465766934</v>
+        <v>0.1396507470616295</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1706859314205801</v>
+        <v>0.1714221841025172</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2010076505439105</v>
+        <v>0.1992465552449315</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2080713384828337</v>
+        <v>0.2061088740304398</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.186823956810712</v>
+        <v>0.1854806412276744</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1749269974133557</v>
+        <v>0.1747545489917361</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2577203413311664</v>
+        <v>0.2559563885859411</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2259614237620757</v>
+        <v>0.2298345458164065</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.171224430964555</v>
+        <v>0.169572892500142</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1664192886706997</v>
+        <v>0.165732810216032</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2204876964694587</v>
+        <v>0.2208768529933354</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2093295997154629</v>
+        <v>0.2102499308824233</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1724530575885525</v>
+        <v>0.1712878549123154</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08468488240257048</v>
+        <v>0.08538379537779228</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1211094130858811</v>
+        <v>0.1204277370442122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1313180357832995</v>
+        <v>0.1310634307049292</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1463549927898389</v>
+        <v>0.1468729384304397</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1199815313179088</v>
+        <v>0.1174275138180996</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1735424263268302</v>
+        <v>0.1743692804825753</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1286485454844714</v>
+        <v>0.1273101160079709</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1401299456076316</v>
+        <v>0.1395132011099992</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.11025306139763</v>
+        <v>0.1081804766714955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1549557602861869</v>
+        <v>0.155756622948839</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.133167263038589</v>
+        <v>0.1365205639393426</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1496459107452871</v>
+        <v>0.1506952680802357</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1353002938829948</v>
+        <v>0.1344528432304269</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1762426815797744</v>
+        <v>0.177195204279025</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1861425073896243</v>
+        <v>0.1854885104770995</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2053774328327055</v>
+        <v>0.2062543362308882</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1699989977179342</v>
+        <v>0.1701131816104146</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2334008294969555</v>
+        <v>0.2341883096006147</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1856966859954033</v>
+        <v>0.1848786426931954</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1845481988602011</v>
+        <v>0.1858777614828897</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1458132810657419</v>
+        <v>0.1449483639679291</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.195924549653737</v>
+        <v>0.1970502332566247</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1748066817556805</v>
+        <v>0.1756716084710718</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1882419315037185</v>
+        <v>0.1877964388041713</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09099334812455324</v>
+        <v>0.09196549711827703</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1243850554407426</v>
+        <v>0.1251622238362704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1242610288505244</v>
+        <v>0.1232094755891572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1441155219096191</v>
+        <v>0.1439566953556893</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1266996276909414</v>
+        <v>0.1278668864910107</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1709987243932824</v>
+        <v>0.1713734682000686</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1639148056282255</v>
+        <v>0.1655145842531977</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1642106750730853</v>
+        <v>0.1655114779011949</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1145305597256968</v>
+        <v>0.1154093548678454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1551318983278446</v>
+        <v>0.1550484926905711</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1513812595350327</v>
+        <v>0.1519236569064927</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1601197982421762</v>
+        <v>0.1610244896820415</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1323780890746009</v>
+        <v>0.130599509001159</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1738208701980608</v>
+        <v>0.175206377376478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1717172990484948</v>
+        <v>0.1699197077012884</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.194685871658567</v>
+        <v>0.1929310912984349</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1728492239864785</v>
+        <v>0.172322653905685</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2235564751432415</v>
+        <v>0.2231178411167335</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2184399722375157</v>
+        <v>0.2204289725891813</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2023782120025726</v>
+        <v>0.2037743315989522</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1454466682895718</v>
+        <v>0.1457156825904657</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1886835982668919</v>
+        <v>0.1899067795244458</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1876562182918947</v>
+        <v>0.1873078037413536</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1902310413726967</v>
+        <v>0.1907916332929278</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1784961065829205</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1710752985301051</v>
+        <v>0.171075298530105</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1516289655994046</v>
+        <v>0.153387701039976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1570254086604667</v>
+        <v>0.1570121827020046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1561463603124457</v>
+        <v>0.1559238264511973</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1974121597492258</v>
+        <v>0.1971348882414079</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1739914460676</v>
+        <v>0.1737867581413026</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.162215211839431</v>
+        <v>0.1617575678300949</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1780946611697248</v>
+        <v>0.1771276022033057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.167613575970413</v>
+        <v>0.169082959754227</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1620946296369999</v>
+        <v>0.1624092396576425</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1802338987128513</v>
+        <v>0.1796858143168582</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1826807526177207</v>
+        <v>0.1837775042048599</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1831883927307408</v>
+        <v>0.1825625650796149</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2259863696221692</v>
+        <v>0.2253540689922032</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2004033091940753</v>
+        <v>0.2013686481608608</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1831434492571926</v>
+        <v>0.1831877193253705</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1979878712914117</v>
+        <v>0.1970773354030113</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1876944203854455</v>
+        <v>0.1877174176137923</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1795529247436644</v>
+        <v>0.1793181573559217</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>64671</v>
+        <v>64067</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>114336</v>
+        <v>117112</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>111659</v>
+        <v>108480</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>105306</v>
+        <v>104630</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>87020</v>
+        <v>89019</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>123042</v>
+        <v>121001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>102678</v>
+        <v>100736</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>120385</v>
+        <v>121891</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>159400</v>
+        <v>160568</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>250217</v>
+        <v>248980</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>222438</v>
+        <v>224434</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>235837</v>
+        <v>238004</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>99357</v>
+        <v>99255</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>156577</v>
+        <v>158902</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>150564</v>
+        <v>151055</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>143693</v>
+        <v>143440</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>123013</v>
+        <v>123955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>166487</v>
+        <v>166516</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>144322</v>
+        <v>141008</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>154578</v>
+        <v>154902</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>210282</v>
+        <v>211090</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>309258</v>
+        <v>310631</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>279721</v>
+        <v>283800</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>287691</v>
+        <v>290736</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>119222</v>
+        <v>120349</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>148506</v>
+        <v>148948</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>153924</v>
+        <v>154519</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>141475</v>
+        <v>140930</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>122019</v>
+        <v>122810</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>199829</v>
+        <v>198175</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>176978</v>
+        <v>174429</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>138460</v>
+        <v>137188</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>253832</v>
+        <v>251488</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>362620</v>
+        <v>365909</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>343142</v>
+        <v>341441</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>288569</v>
+        <v>289773</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>162785</v>
+        <v>163487</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>199367</v>
+        <v>197620</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>204795</v>
+        <v>202863</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>193836</v>
+        <v>192442</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>167177</v>
+        <v>167012</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>254880</v>
+        <v>253135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>224654</v>
+        <v>228505</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>177637</v>
+        <v>175924</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>317761</v>
+        <v>316451</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>436746</v>
+        <v>437516</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>414152</v>
+        <v>415973</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>357837</v>
+        <v>355419</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>56918</v>
+        <v>57388</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>89614</v>
+        <v>89110</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>97905</v>
+        <v>97715</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>115349</v>
+        <v>115757</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>81248</v>
+        <v>79518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>129393</v>
+        <v>130010</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>96165</v>
+        <v>95164</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>110361</v>
+        <v>109875</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>148763</v>
+        <v>145967</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>230194</v>
+        <v>231383</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>198826</v>
+        <v>203833</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>235798</v>
+        <v>237451</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90938</v>
+        <v>90369</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>130410</v>
+        <v>131115</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>138779</v>
+        <v>138292</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>161867</v>
+        <v>162558</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>115118</v>
+        <v>115195</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>174024</v>
+        <v>174611</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>138808</v>
+        <v>138197</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>145343</v>
+        <v>146390</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>196744</v>
+        <v>195577</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>291055</v>
+        <v>292727</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>260996</v>
+        <v>262287</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>296614</v>
+        <v>295912</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>84526</v>
+        <v>85429</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>116293</v>
+        <v>117020</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>112550</v>
+        <v>111598</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>138153</v>
+        <v>138001</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>129368</v>
+        <v>130560</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>172845</v>
+        <v>173224</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>161422</v>
+        <v>162997</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>175718</v>
+        <v>177110</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>223333</v>
+        <v>225046</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>301847</v>
+        <v>301685</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>286194</v>
+        <v>287219</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>324836</v>
+        <v>326672</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>122969</v>
+        <v>121317</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>162513</v>
+        <v>163808</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>155534</v>
+        <v>153906</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>186632</v>
+        <v>184950</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>176490</v>
+        <v>175952</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>225971</v>
+        <v>225527</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>215118</v>
+        <v>217076</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>216560</v>
+        <v>218054</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>283619</v>
+        <v>284143</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>367130</v>
+        <v>369510</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>354773</v>
+        <v>354114</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>385923</v>
+        <v>387060</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>509525</v>
+        <v>515435</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>514088</v>
+        <v>514045</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>539066</v>
+        <v>538298</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>672690</v>
+        <v>671745</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>581536</v>
+        <v>580852</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>582723</v>
+        <v>581079</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1205324</v>
+        <v>1198779</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1108972</v>
+        <v>1118694</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1141892</v>
+        <v>1144108</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>605647</v>
+        <v>603805</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>598081</v>
+        <v>601672</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>632424</v>
+        <v>630263</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>770058</v>
+        <v>767903</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>669814</v>
+        <v>673040</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>657904</v>
+        <v>658063</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1339959</v>
+        <v>1333796</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1241832</v>
+        <v>1241984</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1264879</v>
+        <v>1263225</v>
       </c>
     </row>
     <row r="24">
